--- a/exam list.xlsx
+++ b/exam list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/02905db65e94768d/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/02905db65e94768d/web dev files/JOB EXAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{A1B5C845-C9B4-41D0-896E-50A461F45883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97607956-B42D-4CBD-B35D-E33FDE1DE478}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="8_{A1B5C845-C9B4-41D0-896E-50A461F45883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E614C3B4-4705-4705-A3BC-C54473D4CCA4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7682F4A5-065A-4ED3-B4F7-9C78FAD00689}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>Category</t>
   </si>
@@ -58,13 +58,148 @@
   </si>
   <si>
     <t>Selling price</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>cooking oil</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>garlic</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>pork meat</t>
+  </si>
+  <si>
+    <t>beef meat</t>
+  </si>
+  <si>
+    <t>chicken meat</t>
+  </si>
+  <si>
+    <t>vinegar</t>
+  </si>
+  <si>
+    <t>instant noodles</t>
+  </si>
+  <si>
+    <t>biscuits</t>
+  </si>
+  <si>
+    <t>tomatoes</t>
+  </si>
+  <si>
+    <t>eggplant</t>
+  </si>
+  <si>
+    <t>powedered milk</t>
+  </si>
+  <si>
+    <t> beverage brewed from the roasted and ground seeds of the tropical evergreen coffee plant of African origin.</t>
+  </si>
+  <si>
+    <t> any of numerous sweet, colourless, water-soluble compounds present in the sap of seed plants and the milk of mammals and making up the simplest group of carbohydrates.</t>
+  </si>
+  <si>
+    <t>is a cereal grain, and in its domesticated form is the staple food for over half of the world's human population,</t>
+  </si>
+  <si>
+    <t>also called sodium chloride, mineral substance of great importance to human and animal health, as well as to industry.</t>
+  </si>
+  <si>
+    <t>(also known as edible oil) is a plant or animal liquid fat used in frying, baking, and other types of cooking.</t>
+  </si>
+  <si>
+    <t>herbaceous biennial plant in the amaryllis family (Amaryllidaceae) grown for its edible bulb. </t>
+  </si>
+  <si>
+    <t>Origin and major types. Subspecies and varieties. Cultivation. Production. Properties. History. </t>
+  </si>
+  <si>
+    <t>fresh chicken eggs</t>
+  </si>
+  <si>
+    <t>tender pork meats</t>
+  </si>
+  <si>
+    <t>high quality beef</t>
+  </si>
+  <si>
+    <t>fresh and well fed farm chicken meat</t>
+  </si>
+  <si>
+    <t>sour liquid made by fermenting any of numerous dilute alcoholic liquids into a liquid containing acetic acid. </t>
+  </si>
+  <si>
+    <t>ajinomoto</t>
+  </si>
+  <si>
+    <t>s a familiar term to describe the widely used flavor enhancer, most people are unaware of MSG’s</t>
+  </si>
+  <si>
+    <t>Instant noodles, or instant ramen, is a type of food consisting of noodles sold in a precooked and dried block with flavoring powder and/or seasoning oil.</t>
+  </si>
+  <si>
+    <t>, a small quick bread usually made from flour, salt, and butter or vegetable shortening, with baking powder as a leavening agent.</t>
+  </si>
+  <si>
+    <t>lowering plant of the nightshade family , cultivated extensively for its edible fruits.</t>
+  </si>
+  <si>
+    <t>is a delicate, tropical perennial plant often cultivated as a tender or half-hardy annual in temperate climates.</t>
+  </si>
+  <si>
+    <t>dried milk, or dry milk, is a manufactured dairy product made by evaporating milk to dryness. </t>
+  </si>
+  <si>
+    <t>MEAT</t>
+  </si>
+  <si>
+    <t>dairy</t>
+  </si>
+  <si>
+    <t>Beverages</t>
+  </si>
+  <si>
+    <t>Condiments &amp; Spices</t>
+  </si>
+  <si>
+    <t>Pasta, Rice &amp; Cereal</t>
+  </si>
+  <si>
+    <t>pastry</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,15 +208,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color rgb="FF313131"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -106,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -115,8 +262,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -132,6 +289,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,25 +592,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7092C8C-F0C0-49B3-91CF-6DD6677EBEE4}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="109.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="20.85546875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -462,7 +623,7 @@
       <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -474,6 +635,462 @@
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="2" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>33</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="5">
+        <v>50</v>
+      </c>
+      <c r="G2" s="5">
+        <v>60</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>55</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="5">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="5">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5">
+        <v>30</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="5">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>56</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="5">
+        <v>60</v>
+      </c>
+      <c r="G6" s="5">
+        <v>70</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="5">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5">
+        <v>20</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>57</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="5">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>56</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5">
+        <v>7</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>58</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="5">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5">
+        <v>10</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>24</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="5">
+        <v>350</v>
+      </c>
+      <c r="G11" s="5">
+        <v>400</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="5">
+        <v>400</v>
+      </c>
+      <c r="G12" s="5">
+        <v>450</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="5">
+        <v>250</v>
+      </c>
+      <c r="G13" s="5">
+        <v>300</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>89</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="5">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5">
+        <v>15</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>74</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="5">
+        <v>5</v>
+      </c>
+      <c r="G15" s="5">
+        <v>7</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>46</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="5">
+        <v>15</v>
+      </c>
+      <c r="G16" s="5">
+        <v>20</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="5">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5">
+        <v>15</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="5">
+        <v>6</v>
+      </c>
+      <c r="G18" s="5">
+        <v>8</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <v>78</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="5">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5">
+        <v>15</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>72</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="5">
+        <v>25</v>
+      </c>
+      <c r="G20" s="5">
+        <v>30</v>
+      </c>
+      <c r="H20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
